--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\OneDrive - ESCUELA SUPERIOR POLITECNICA DE CHIMBORAZO\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CABF3E-8FC5-4233-A3B8-FFFF7D2C1961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E536DCA-7CAC-4B38-9A5A-3D0AE9F2BD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -77,24 +77,12 @@
     <t>HU_05</t>
   </si>
   <si>
-    <t>Como usuario requiero poder iniciar sesión en la aplicación</t>
-  </si>
-  <si>
     <t>HU_06</t>
   </si>
   <si>
-    <t>Como administrador, quiero que la aplicación sea en tiempo real para poder actualizar el ranking.</t>
-  </si>
-  <si>
     <t>Como administrador requiero establecer la meta mensual  para los asesores de crédito.</t>
   </si>
   <si>
-    <t xml:space="preserve">Como administrador, deseo tener acceso a un panel que me permita visualizar el ranking de asesores de crédito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como administrador requiero agregar usuarios al sistema. </t>
-  </si>
-  <si>
     <t>Como asesor de crédito requiero tener la facilidad de ingresar la información de los créditos que otorgo diariamente</t>
   </si>
   <si>
@@ -113,18 +101,12 @@
     <t>HT_05</t>
   </si>
   <si>
-    <t>Como desarrollador requiero implementar la interfaz de inicio del sistema para permitir el acceso a los usuarios.</t>
-  </si>
-  <si>
     <t>HT_06</t>
   </si>
   <si>
     <t>HT_07</t>
   </si>
   <si>
-    <t xml:space="preserve">Como desarrollador requiero configurar los servidores para frontend, backend y base de datos </t>
-  </si>
-  <si>
     <t>Como desarrollador requiero diseñar la base de datos de las  diferentes entidades del sistema.</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t xml:space="preserve">Como desarrollador, debo diseñar e implementar un sistema que permita mostrar el ranking en tiempo real. </t>
   </si>
   <si>
-    <t>Como desarrollador, debo implementar el sistema que permitirá a los administradores agregar nuevos usuarios y asesores al sistema.</t>
-  </si>
-  <si>
     <t>PRIORIDAD</t>
   </si>
   <si>
@@ -158,10 +137,31 @@
     <t>Como desarrollador, necesito que la aplicación se conecte mediante web socket</t>
   </si>
   <si>
-    <t>Como desarrollador, necesito que la aplicación se despliegue para android y ios</t>
-  </si>
-  <si>
     <t>Terminado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como desarrollador requiero implementar la interfaz de inicio del sistema para permitir el acceso a los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Como desarrollador, necesito que la aplicación se despliegue para android y ios</t>
+  </si>
+  <si>
+    <t>Como desarrollador requiero configurar los servidores para frontend, backend y base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desarrollador, debo implementar el sistema que permitirá a los administradores agregar nuevos usuarios y asesores al sistema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador requiero agregar usuarios al sistema.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario requiero poder iniciar sesión en la aplicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario, deseo tener acceso a un panel que me permita visualizar el ranking de asesores de crédito. </t>
+  </si>
+  <si>
+    <t>Como usuario, quiero que la aplicación sea en tiempo real para poder actualizar el ranking.</t>
   </si>
 </sst>
 </file>
@@ -328,7 +328,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -348,32 +348,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -696,47 +690,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="11.42578125" style="12"/>
-    <col min="5" max="6" width="11.42578125" style="15"/>
+    <col min="3" max="6" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -755,49 +747,49 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -805,183 +797,183 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="11">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>35</v>
+      <c r="F13" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
         <v>35</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\OneDrive - ESCUELA SUPERIOR POLITECNICA DE CHIMBORAZO\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\OneDrive - ESCUELA SUPERIOR POLITECNICA DE CHIMBORAZO\Escritorio\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E536DCA-7CAC-4B38-9A5A-3D0AE9F2BD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D3017-5467-4DF9-BC19-FF8421824A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Como desarrollador requiero configurar los servidores para frontend, backend y base de datos</t>
   </si>
   <si>
-    <t xml:space="preserve">Como desarrollador, debo implementar el sistema que permitirá a los administradores agregar nuevos usuarios y asesores al sistema. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Como administrador requiero agregar usuarios al sistema.  </t>
   </si>
   <si>
@@ -162,6 +159,54 @@
   </si>
   <si>
     <t>Como usuario, quiero que la aplicación sea en tiempo real para poder actualizar el ranking.</t>
+  </si>
+  <si>
+    <t>HU_07</t>
+  </si>
+  <si>
+    <t>Como asesor de credito, quiero recibir notificaciones por whatsapp cuando entre al top 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desarrollador, debo implementar un formulario que permitirá a los administradores agregar nuevos asesores al sistema. </t>
+  </si>
+  <si>
+    <t>HT_10</t>
+  </si>
+  <si>
+    <t>Como desarrollador, debo implementar un formulario que permitirá a los asesores de credito ingresar los créditos otorgados desde su celular.</t>
+  </si>
+  <si>
+    <t>Como asesor de crédito quiero  ver mis datos personales e historial de créditos.</t>
+  </si>
+  <si>
+    <t>Como administrador quiero poder modificar los datos de los usuarios registrados.</t>
+  </si>
+  <si>
+    <t>Como administrador quiero poder eliminar usuarios registrados.</t>
+  </si>
+  <si>
+    <t>HU_08</t>
+  </si>
+  <si>
+    <t>HU_09</t>
+  </si>
+  <si>
+    <t>HU_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desarrollador, debo implementar la funcionalidad que permitirá a los administradores editar la información personal de los asesores registrados en el sistema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desarrollador, debo implementar la funcionalidad que permitirá a los administradores eliminar asesores registrados en el sistema. </t>
+  </si>
+  <si>
+    <t>HT_11</t>
+  </si>
+  <si>
+    <t>HT_12</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
   </si>
 </sst>
 </file>
@@ -276,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -317,6 +362,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -328,7 +384,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -356,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,34 +760,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -755,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -769,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -797,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -806,112 +865,126 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -920,12 +993,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -934,45 +1007,129 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -981,7 +1138,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\OneDrive - ESCUELA SUPERIOR POLITECNICA DE CHIMBORAZO\Escritorio\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D3017-5467-4DF9-BC19-FF8421824A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4441AA18-958C-4F45-B9AB-FDB512D88D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -110,15 +110,6 @@
     <t>Como desarrollador requiero diseñar la base de datos de las  diferentes entidades del sistema.</t>
   </si>
   <si>
-    <t>Como desarrollador, debo integrar la API de WhatsApp para permitir el envío de notificaciones a través de esta plataforma.</t>
-  </si>
-  <si>
-    <t>Como desarrollador, debo implementar el módulo que permitirá a los administradores establecer metas mensuales para los asesores de crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como desarrollador, debo diseñar e implementar un sistema que permita mostrar el ranking en tiempo real. </t>
-  </si>
-  <si>
     <t>PRIORIDAD</t>
   </si>
   <si>
@@ -128,92 +119,53 @@
     <t>HISTORIA TÉCNICA</t>
   </si>
   <si>
-    <t>HT_08</t>
-  </si>
-  <si>
-    <t>HT_09</t>
-  </si>
-  <si>
-    <t>Como desarrollador, necesito que la aplicación se conecte mediante web socket</t>
-  </si>
-  <si>
     <t>Terminado</t>
   </si>
   <si>
-    <t xml:space="preserve"> Como desarrollador requiero implementar la interfaz de inicio del sistema para permitir el acceso a los usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Como desarrollador, necesito que la aplicación se despliegue para android y ios</t>
-  </si>
-  <si>
     <t>Como desarrollador requiero configurar los servidores para frontend, backend y base de datos</t>
   </si>
   <si>
     <t xml:space="preserve">Como administrador requiero agregar usuarios al sistema.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Como usuario requiero poder iniciar sesión en la aplicación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como usuario, deseo tener acceso a un panel que me permita visualizar el ranking de asesores de crédito. </t>
-  </si>
-  <si>
-    <t>Como usuario, quiero que la aplicación sea en tiempo real para poder actualizar el ranking.</t>
-  </si>
-  <si>
     <t>HU_07</t>
   </si>
   <si>
-    <t>Como asesor de credito, quiero recibir notificaciones por whatsapp cuando entre al top 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como desarrollador, debo implementar un formulario que permitirá a los administradores agregar nuevos asesores al sistema. </t>
-  </si>
-  <si>
-    <t>HT_10</t>
-  </si>
-  <si>
-    <t>Como desarrollador, debo implementar un formulario que permitirá a los asesores de credito ingresar los créditos otorgados desde su celular.</t>
-  </si>
-  <si>
-    <t>Como asesor de crédito quiero  ver mis datos personales e historial de créditos.</t>
-  </si>
-  <si>
     <t>Como administrador quiero poder modificar los datos de los usuarios registrados.</t>
   </si>
   <si>
     <t>Como administrador quiero poder eliminar usuarios registrados.</t>
   </si>
   <si>
-    <t>HU_08</t>
-  </si>
-  <si>
-    <t>HU_09</t>
-  </si>
-  <si>
-    <t>HU_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como desarrollador, debo implementar la funcionalidad que permitirá a los administradores editar la información personal de los asesores registrados en el sistema. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como desarrollador, debo implementar la funcionalidad que permitirá a los administradores eliminar asesores registrados en el sistema. </t>
-  </si>
-  <si>
-    <t>HT_11</t>
-  </si>
-  <si>
-    <t>HT_12</t>
-  </si>
-  <si>
     <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Como desarrollador, necesito que la aplicación se conecte mediante  socket IO para la comunicación en tiempo real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desarrollador, necesito flutter para construir la aplicación en android </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador requiero que los asesores de credito puedan  iniciar sesión en la aplicación </t>
+  </si>
+  <si>
+    <t>Como administrador, requiero que se  visualice el ranking de los asesores de crédito en tiempo real.</t>
+  </si>
+  <si>
+    <t>Como desarrollador, requiero utilizar PostgreSQL como sistema de gestión de base de datos para el sistema.</t>
+  </si>
+  <si>
+    <t>Como desarrollador, requiero implementar el backend del sistema utilizando Node.js.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desarrollador, se debe utilizar Angular para construir la aplicación web del sistema. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,29 +176,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,12 +211,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -379,54 +359,79 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -747,390 +752,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="9"/>
+    <col min="3" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D15" s="11">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="7">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>28</v>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1049,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\OneDrive - ESCUELA SUPERIOR POLITECNICA DE CHIMBORAZO\Escritorio\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4441AA18-958C-4F45-B9AB-FDB512D88D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF0F72-FCF7-4D66-BF38-E57012B3E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -56,9 +57,6 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>ESFUERZO</t>
-  </si>
-  <si>
     <t>SPRINT</t>
   </si>
   <si>
@@ -159,13 +157,146 @@
   </si>
   <si>
     <t xml:space="preserve">Como desarrollador, se debe utilizar Angular para construir la aplicación web del sistema. </t>
+  </si>
+  <si>
+    <t>Planificado</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T-SHIRT 
+(SIZE)</t>
+  </si>
+  <si>
+    <t>HORAS</t>
+  </si>
+  <si>
+    <t>SEMANAS</t>
+  </si>
+  <si>
+    <t>HORAS DESARROLLO / DIA</t>
+  </si>
+  <si>
+    <t>HORAS SOPORTE / DIA</t>
+  </si>
+  <si>
+    <t>HORAS TOTAL / DIA</t>
+  </si>
+  <si>
+    <t>HORAS DESARROLLO /SEMANA</t>
+  </si>
+  <si>
+    <t>HORAS SOPORTE / SEMANA</t>
+  </si>
+  <si>
+    <t>HORAS TOTAL / SEMANA</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <t>MÓDULO</t>
+  </si>
+  <si>
+    <t>SUBMÓDULO</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>LOGGIN</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>INGRESO DE CRÉDITO</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>MODIFICAR DATOS</t>
+  </si>
+  <si>
+    <t>ELIMINAR DATOS</t>
+  </si>
+  <si>
+    <t>REGISTRO DE USUARIO</t>
+  </si>
+  <si>
+    <t>RANKING</t>
+  </si>
+  <si>
+    <t>METAS</t>
+  </si>
+  <si>
+    <t>VISUALIZAR RANKING</t>
+  </si>
+  <si>
+    <t>RQ-02</t>
+  </si>
+  <si>
+    <t>RQ-01</t>
+  </si>
+  <si>
+    <t>RQ-03</t>
+  </si>
+  <si>
+    <t>RQ-05</t>
+  </si>
+  <si>
+    <t>RQ-04</t>
+  </si>
+  <si>
+    <t>RQ-07</t>
+  </si>
+  <si>
+    <t>TOTAL HORAS</t>
+  </si>
+  <si>
+    <t>TOTAL DIAS</t>
+  </si>
+  <si>
+    <t>TOTAL SEMANAS</t>
+  </si>
+  <si>
+    <t>ESTIMADA</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>ESFUERZO ESTIMADO (horas)</t>
+  </si>
+  <si>
+    <t>ESFUERZO REAL (horas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +400,30 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +453,26 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -353,8 +524,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -363,30 +633,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,17 +658,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -421,20 +676,101 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="20% - Énfasis2" xfId="6" builtinId="34"/>
     <cellStyle name="Bueno" xfId="5" builtinId="26"/>
     <cellStyle name="Datos anticipo" xfId="1" xr:uid="{FCFF95EE-4606-4D01-9366-997E4199183B}"/>
     <cellStyle name="Encabezado 1" xfId="3" builtinId="16"/>
@@ -752,305 +1088,824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A6" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="I6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="C12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="45">
+        <f>SUM(E6:E12)+SUM(E16:E22)</f>
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="G26" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="45">
+        <f>SUM(F6:F12)+SUM(F16:F22)</f>
         <v>12</v>
       </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="45">
+        <f>F26/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="45">
+        <f>H26/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="47">
+        <f>F27/7</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="47">
+        <f>H27/7</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A14:F14"/>
+  <mergeCells count="6">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E91EF73-47AF-43F8-8D00-3D107D9A4311}">
+  <dimension ref="A3:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="20">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" ref="C4:C9" si="0">B4/30</f>
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>6</v>
+      </c>
+      <c r="F4" s="20">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20">
+        <f>SUM(E4:F4)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="23">
+        <f>E4*5</f>
+        <v>30</v>
+      </c>
+      <c r="I4" s="20">
+        <f>F4*5</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="20">
+        <f>SUM(H4:I4)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="20">
+        <v>12</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="20">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="20">
+        <v>24</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="23">
+        <v>30</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="20">
+        <v>60</v>
+      </c>
+      <c r="C9" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\OneDrive - ESCUELA SUPERIOR POLITECNICA DE CHIMBORAZO\Escritorio\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\git\RankingBank\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF0F72-FCF7-4D66-BF38-E57012B3E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E818773-A74E-42A9-8947-5D19C77A0B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -78,12 +78,6 @@
     <t>HU_06</t>
   </si>
   <si>
-    <t>Como administrador requiero establecer la meta mensual  para los asesores de crédito.</t>
-  </si>
-  <si>
-    <t>Como asesor de crédito requiero tener la facilidad de ingresar la información de los créditos que otorgo diariamente</t>
-  </si>
-  <si>
     <t>HT_01</t>
   </si>
   <si>
@@ -142,12 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve">Como desarrollador, necesito flutter para construir la aplicación en android </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como administrador requiero que los asesores de credito puedan  iniciar sesión en la aplicación </t>
-  </si>
-  <si>
-    <t>Como administrador, requiero que se  visualice el ranking de los asesores de crédito en tiempo real.</t>
   </si>
   <si>
     <t>Como desarrollador, requiero utilizar PostgreSQL como sistema de gestión de base de datos para el sistema.</t>
@@ -290,13 +278,40 @@
   </si>
   <si>
     <t>ESFUERZO REAL (horas)</t>
+  </si>
+  <si>
+    <t>HU_08</t>
+  </si>
+  <si>
+    <t>Como supervisor, requiero aprobar o desaprobar los microcréditos ingresados al sistema por los asesores de microcréditos.</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>APROBAR MICROCRÉDITO</t>
+  </si>
+  <si>
+    <t>RQ-08</t>
+  </si>
+  <si>
+    <t>microcréditos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador requiero que los asesores de microcréditos puedan  iniciar sesión en la aplicación </t>
+  </si>
+  <si>
+    <t>Como administrador requiero establecer la meta mensual  para los asesores de microcréditos.</t>
+  </si>
+  <si>
+    <t>Como administrador, requiero que se  visualice el ranking de los asesores de microcréditos en tiempo real.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,12 +355,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -635,138 +644,129 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,649 +1110,663 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="J13" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="28" t="s">
+      <c r="K13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="15" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="C19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="6">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="45">
+      <c r="F26" s="37">
         <f>SUM(E6:E12)+SUM(E16:E22)</f>
         <v>12</v>
       </c>
-      <c r="G26" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="45">
+      <c r="G26" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="37">
         <f>SUM(F6:F12)+SUM(F16:F22)</f>
         <v>12</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="10"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="45">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="37">
         <f>F26/24</f>
         <v>0.5</v>
       </c>
-      <c r="G27" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="45">
+      <c r="G27" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="37">
         <f>H26/24</f>
         <v>0.5</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="47">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="39">
         <f>F27/7</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="47">
+      <c r="G28" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="39">
         <f>H27/7</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="10"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="10"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="10"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="10"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1771,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E91EF73-47AF-43F8-8D00-3D107D9A4311}">
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1782,125 +1796,125 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="G3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="H3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>6</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C9" si="0">B4/30</f>
         <v>0.2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>6</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <f>SUM(E4:F4)</f>
         <v>8</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <f>E4*5</f>
         <v>30</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="17">
         <f>F4*5</f>
         <v>10</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <f>SUM(H4:I4)</f>
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="A5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="17">
         <v>12</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="20">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="17">
         <v>18</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="20">
+      <c r="A7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="17">
         <v>24</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="A8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="20">
         <v>30</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="A9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="17">
         <v>60</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\git\RankingBank\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E818773-A74E-42A9-8947-5D19C77A0B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0C9DC-E4A7-4DC6-85C7-4A8FF3C33420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
+    <workbookView xWindow="1560" yWindow="1080" windowWidth="14370" windowHeight="15120" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -295,16 +295,16 @@
     <t>RQ-08</t>
   </si>
   <si>
-    <t>microcréditos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como administrador requiero que los asesores de microcréditos puedan  iniciar sesión en la aplicación </t>
-  </si>
-  <si>
     <t>Como administrador requiero establecer la meta mensual  para los asesores de microcréditos.</t>
   </si>
   <si>
     <t>Como administrador, requiero que se  visualice el ranking de los asesores de microcréditos en tiempo real.</t>
+  </si>
+  <si>
+    <t>Como asesor de microcrédito requiero ingresar la información de los microcréditos otorgados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador requiero que los asesores de microcréditos y supervisores puedan  iniciar sesión en la aplicación </t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -531,21 +531,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -691,9 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -711,10 +693,10 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -741,22 +723,25 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,7 +1076,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,17 +1125,17 @@
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -1168,53 +1153,53 @@
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="L5" s="26"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1238,10 +1223,10 @@
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1251,34 +1236,34 @@
       <c r="I7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="31" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -1292,10 +1277,10 @@
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1305,7 +1290,7 @@
       <c r="I9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="33" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1319,10 +1304,10 @@
       <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1332,7 +1317,7 @@
       <c r="I10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -1344,12 +1329,12 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1359,7 +1344,7 @@
       <c r="I11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1371,12 +1356,12 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1386,7 +1371,7 @@
       <c r="I12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="31" t="s">
         <v>66</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1400,10 +1385,10 @@
       <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1413,7 +1398,7 @@
       <c r="I13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="31" t="s">
         <v>83</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1429,11 +1414,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:13" s="15" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1433,7 @@
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
     </row>
-    <row r="16" spans="1:13" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1443,7 @@
       <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="4">
@@ -1476,7 +1461,7 @@
       <c r="I16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -1486,20 +1471,28 @@
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="31"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
@@ -1509,20 +1502,28 @@
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="D18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
@@ -1532,10 +1533,10 @@
       <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1545,7 +1546,7 @@
       <c r="I19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="31"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -1555,10 +1556,10 @@
       <c r="B20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1568,7 +1569,7 @@
       <c r="I20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -1578,10 +1579,10 @@
       <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1591,7 +1592,7 @@
       <c r="I21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -1601,10 +1602,10 @@
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1614,38 +1615,38 @@
       <c r="I22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="31"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="40" t="s">
@@ -1656,116 +1657,116 @@
         <v>77</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <f>SUM(E6:E12)+SUM(E16:E22)</f>
-        <v>12</v>
-      </c>
-      <c r="G26" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <f>SUM(F6:F12)+SUM(F16:F22)</f>
-        <v>12</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <f>F26/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="36" t="s">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <f>H26/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="38">
         <f>F27/7</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="G28" s="38" t="s">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="G28" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="38">
         <f>H27/7</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
       <c r="K31" s="8"/>
     </row>
   </sheetData>
@@ -1796,125 +1797,125 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>6</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C9" si="0">B4/30</f>
         <v>0.2</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>6</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>SUM(E4:F4)</f>
         <v>8</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f>E4*5</f>
         <v>30</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <f>F4*5</f>
         <v>10</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <f>SUM(H4:I4)</f>
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>18</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>24</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>30</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>60</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\git\RankingBank\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0C9DC-E4A7-4DC6-85C7-4A8FF3C33420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CFC1D-2AAE-430E-94A5-957FB65E5C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1080" windowWidth="14370" windowHeight="15120" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,13 +1602,21 @@
       <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="C22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1671,14 +1679,14 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(E6:E12)+SUM(E16:E22)</f>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>73</v>
       </c>
       <c r="H26" s="36">
         <f>SUM(F6:F12)+SUM(F16:F22)</f>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -1694,14 +1702,14 @@
       </c>
       <c r="F27" s="36">
         <f>F26/24</f>
-        <v>2.6666666666666665</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>74</v>
       </c>
       <c r="H27" s="36">
         <f>H26/24</f>
-        <v>2.0416666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
@@ -1717,14 +1725,14 @@
       </c>
       <c r="F28" s="38">
         <f>F27/7</f>
-        <v>0.38095238095238093</v>
+        <v>0.45238095238095238</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>75</v>
       </c>
       <c r="H28" s="38">
         <f>H27/7</f>
-        <v>0.29166666666666663</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
@@ -1787,7 +1795,7 @@
   <dimension ref="A3:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\git\RankingBank\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CFC1D-2AAE-430E-94A5-957FB65E5C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DF40C-9DC7-4117-A158-099E77DB8322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -96,9 +96,6 @@
     <t>HT_06</t>
   </si>
   <si>
-    <t>HT_07</t>
-  </si>
-  <si>
     <t>Como desarrollador requiero diseñar la base de datos de las  diferentes entidades del sistema.</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>MEDIA</t>
-  </si>
-  <si>
-    <t>Como desarrollador, necesito que la aplicación se conecte mediante  socket IO para la comunicación en tiempo real</t>
   </si>
   <si>
     <t xml:space="preserve">Como desarrollador, necesito flutter para construir la aplicación en android </t>
@@ -298,20 +292,20 @@
     <t>Como administrador requiero establecer la meta mensual  para los asesores de microcréditos.</t>
   </si>
   <si>
-    <t>Como administrador, requiero que se  visualice el ranking de los asesores de microcréditos en tiempo real.</t>
-  </si>
-  <si>
     <t>Como asesor de microcrédito requiero ingresar la información de los microcréditos otorgados.</t>
   </si>
   <si>
     <t xml:space="preserve">Como administrador requiero que los asesores de microcréditos y supervisores puedan  iniciar sesión en la aplicación </t>
+  </si>
+  <si>
+    <t>Como administrador, requiero que se  visualice el ranking de los asesores de microcréditos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +425,26 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -481,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -617,6 +631,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -629,7 +658,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,6 +782,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis2" xfId="6" builtinId="34"/>
@@ -777,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -817,7 +882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -923,7 +988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1065,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,28 +1228,28 @@
         <v>5</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" s="26"/>
       <c r="M5" s="25"/>
@@ -1194,26 +1259,26 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
@@ -1221,26 +1286,26 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
@@ -1248,26 +1313,26 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
@@ -1275,26 +1340,26 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,26 +1367,26 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>62</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
@@ -1329,80 +1394,80 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>66</v>
-      </c>
       <c r="K12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1420,7 +1485,7 @@
     </row>
     <row r="15" spans="1:13" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -1438,13 +1503,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4">
         <v>12</v>
@@ -1456,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="4"/>
@@ -1469,13 +1534,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4">
         <v>12</v>
@@ -1487,10 +1552,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="4"/>
@@ -1500,28 +1565,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4">
         <v>40</v>
       </c>
       <c r="F18" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="4"/>
@@ -1531,20 +1596,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="4"/>
@@ -1554,77 +1621,63 @@
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="29"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="4">
-        <v>12</v>
-      </c>
-      <c r="F22" s="4">
-        <v>15</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="4"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -1658,11 +1711,11 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="34"/>
@@ -1675,18 +1728,18 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="36">
         <f>SUM(E6:E12)+SUM(E16:E22)</f>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" s="36">
         <f>SUM(F6:F12)+SUM(F16:F22)</f>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -1698,18 +1751,18 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" s="36">
         <f>F26/24</f>
-        <v>3.1666666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H27" s="36">
         <f>H26/24</f>
-        <v>2.6666666666666665</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
@@ -1721,18 +1774,18 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="38">
         <f>F27/7</f>
-        <v>0.45238095238095238</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" s="38">
         <f>H27/7</f>
-        <v>0.38095238095238093</v>
+        <v>0.44047619047619052</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
@@ -1806,37 +1859,37 @@
   <sheetData>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="16">
         <v>6</v>
@@ -1870,7 +1923,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="16">
         <v>12</v>
@@ -1882,7 +1935,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="16">
         <v>18</v>
@@ -1894,7 +1947,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="16">
         <v>24</v>
@@ -1906,7 +1959,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="19">
         <v>30</v>
@@ -1918,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="16">
         <v>60</v>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\git\RankingBank\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DF40C-9DC7-4117-A158-099E77DB8322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBE8B0E-AB52-44CE-AA9C-3C339B018460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">Como desarrollador, se debe utilizar Angular para construir la aplicación web del sistema. </t>
-  </si>
-  <si>
-    <t>Planificado</t>
   </si>
   <si>
     <t>DIMENSIÓN</t>
@@ -299,13 +296,19 @@
   </si>
   <si>
     <t>Como administrador, requiero que se  visualice el ranking de los asesores de microcréditos.</t>
+  </si>
+  <si>
+    <t>HT_07</t>
+  </si>
+  <si>
+    <t>Como desarrollador, necesito que la aplicación se conecte mediante  socket IO para la comunicación en tiempo real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,19 +435,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -658,7 +648,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,9 +725,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,50 +754,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,6 +771,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis2" xfId="6" builtinId="34"/>
@@ -1140,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,34 +1138,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -1203,19 +1181,19 @@
       <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -1228,13 +1206,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>6</v>
@@ -1243,13 +1221,13 @@
         <v>20</v>
       </c>
       <c r="I5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="K5" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="26"/>
       <c r="M5" s="25"/>
@@ -1259,12 +1237,12 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="29"/>
+        <v>84</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1272,13 +1250,13 @@
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
@@ -1288,10 +1266,10 @@
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="28"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1299,13 +1277,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
@@ -1313,26 +1291,26 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>57</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
@@ -1342,10 +1320,10 @@
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="29"/>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="28"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1353,13 +1331,13 @@
         <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>59</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,10 +1347,10 @@
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="29"/>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="28"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1380,13 +1358,13 @@
         <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
@@ -1394,12 +1372,12 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1407,13 +1385,13 @@
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>63</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,12 +1399,12 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="28"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1434,26 +1412,26 @@
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="29"/>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="28"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1461,13 +1439,13 @@
         <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="K13" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1479,24 +1457,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:13" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1508,8 +1486,8 @@
       <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>36</v>
+      <c r="D16" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="4">
         <v>12</v>
@@ -1524,12 +1502,12 @@
         <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="J16" s="29"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
@@ -1539,8 +1517,8 @@
       <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>36</v>
+      <c r="D17" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="4">
         <v>12</v>
@@ -1555,23 +1533,23 @@
         <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="J17" s="29"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>49</v>
+      <c r="D18" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="4">
         <v>40</v>
@@ -1580,254 +1558,292 @@
         <v>50</v>
       </c>
       <c r="G18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="J18" s="29"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="4">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="J19" s="29"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="J20" s="29"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57" t="s">
+      <c r="C21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="44">
+        <v>15</v>
+      </c>
+      <c r="F21" s="44">
+        <v>15</v>
+      </c>
+      <c r="G21" s="44">
+        <v>4</v>
+      </c>
+      <c r="H21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="50"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
+      <c r="I21" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="8">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="36">
-        <f>SUM(E6:E12)+SUM(E16:E22)</f>
-        <v>64</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="36">
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="35">
+        <f>SUM(E6:E13)+SUM(E16:E22)</f>
+        <v>132</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="35">
         <f>SUM(F6:F12)+SUM(F16:F22)</f>
-        <v>74</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+        <v>143</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="36">
+      <c r="E27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="35">
         <f>F26/24</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="35">
         <f>H26/24</f>
-        <v>3.0833333333333335</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+        <v>5.958333333333333</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="38">
+      <c r="E28" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="37">
         <f>F27/7</f>
-        <v>0.38095238095238093</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="38">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="37">
         <f>H27/7</f>
-        <v>0.44047619047619052</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+        <v>0.85119047619047616</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="8"/>
     </row>
   </sheetData>
@@ -1859,37 +1875,37 @@
   <sheetData>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="16">
         <v>6</v>
@@ -1923,7 +1939,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="16">
         <v>12</v>
@@ -1935,7 +1951,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="16">
         <v>18</v>
@@ -1947,7 +1963,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="16">
         <v>24</v>
@@ -1959,7 +1975,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="19">
         <v>30</v>
@@ -1971,7 +1987,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="16">
         <v>60</v>

--- a/Documentación/PRODUCT_BACKLOG.xlsx
+++ b/Documentación/PRODUCT_BACKLOG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jahel Nogales\git\RankingBank\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBE8B0E-AB52-44CE-AA9C-3C339B018460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC47564-78D0-48E0-9581-6FFBE0BB93C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{CCBAC7FC-6E9C-4FC6-B199-5A9E8318DAC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>Como desarrollador, necesito que la aplicación se conecte mediante  socket IO para la comunicación en tiempo real</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +487,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -648,7 +681,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,16 +819,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis2" xfId="6" builtinId="34"/>
@@ -1118,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42F7CA-15EB-4C4F-85DE-7961A1FE6241}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="105" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1282,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1242,14 +1292,22 @@
       <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.4</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="53" t="s">
         <v>55</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1259,7 +1317,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1269,14 +1327,22 @@
       <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.4</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="53" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="30" t="s">
@@ -1296,14 +1362,22 @@
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.4</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="54" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="31" t="s">
@@ -1323,14 +1397,22 @@
       <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.4</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="55" t="s">
         <v>57</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -1350,14 +1432,22 @@
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.4</v>
+      </c>
       <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="55" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="30" t="s">
@@ -1377,14 +1467,22 @@
       <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.4</v>
+      </c>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="56" t="s">
         <v>61</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -1404,14 +1502,22 @@
       <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="56" t="s">
         <v>61</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -1421,7 +1527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -1431,14 +1537,22 @@
       <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.4</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="57" t="s">
         <v>79</v>
       </c>
       <c r="J13" s="30" t="s">
@@ -1501,7 +1615,7 @@
       <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="58" t="s">
         <v>53</v>
       </c>
       <c r="J16" s="29"/>
@@ -1532,7 +1646,7 @@
       <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="58" t="s">
         <v>53</v>
       </c>
       <c r="J17" s="29"/>
@@ -1557,13 +1671,13 @@
       <c r="F18" s="4">
         <v>50</v>
       </c>
-      <c r="G18" s="4">
-        <v>3</v>
+      <c r="G18" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="58" t="s">
         <v>53</v>
       </c>
       <c r="J18" s="29"/>
@@ -1594,106 +1708,106 @@
       <c r="H19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="58" t="s">
         <v>53</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>24</v>
+      <c r="B20" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="58" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>30</v>
+      <c r="B21" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" s="40" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E22" s="44">
         <v>15</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F22" s="44">
         <v>15</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G22" s="44">
         <v>4</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H22" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I22" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="44"/>
-    </row>
-    <row r="22" spans="1:13" s="40" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="8">
-        <v>8</v>
-      </c>
-      <c r="F22" s="8">
-        <v>8</v>
-      </c>
-      <c r="G22" s="8">
-        <v>3</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22"/>
+      <c r="M22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
@@ -1748,14 +1862,14 @@
       </c>
       <c r="F26" s="35">
         <f>SUM(E6:E13)+SUM(E16:E22)</f>
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="35">
-        <f>SUM(F6:F12)+SUM(F16:F22)</f>
-        <v>143</v>
+        <f>SUM(F6:F13)+SUM(F16:F22)</f>
+        <v>233</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
@@ -1770,15 +1884,15 @@
         <v>71</v>
       </c>
       <c r="F27" s="35">
-        <f>F26/24</f>
-        <v>5.5</v>
+        <f>F26/5</f>
+        <v>44.4</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>71</v>
       </c>
       <c r="H27" s="35">
-        <f>H26/24</f>
-        <v>5.958333333333333</v>
+        <f>H26/5</f>
+        <v>46.6</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
@@ -1793,15 +1907,15 @@
         <v>72</v>
       </c>
       <c r="F28" s="37">
-        <f>F27/7</f>
-        <v>0.7857142857142857</v>
+        <f>F27/11</f>
+        <v>4.0363636363636362</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="37">
-        <f>H27/7</f>
-        <v>0.85119047619047616</v>
+        <f>H27/11</f>
+        <v>4.2363636363636363</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
@@ -1863,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E91EF73-47AF-43F8-8D00-3D107D9A4311}">
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="115" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
